--- a/Analytics/eval/test/results/readme.xlsx
+++ b/Analytics/eval/test/results/readme.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\unity\MLA_BCI\Analytics\eval\test\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB109AD0-6811-417F-B868-28EF307A2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD0ADE-822A-4023-BA59-D3B961EB8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1155" windowWidth="20400" windowHeight="12660"/>
+    <workbookView xWindow="11745" yWindow="1545" windowWidth="20400" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>シート名</t>
     <phoneticPr fontId="18"/>
@@ -70,11 +70,35 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>チャンスレベルとのt検定</t>
+    <rPh sb="10" eb="12">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>16times_diff</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各タイムスタンプの差の検定</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,23 +750,22 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -786,7 +809,7 @@
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="42"/>
+    <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1098,11 +1121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1114,25 +1137,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1162,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1171,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1180,20 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/Analytics/eval/test/results/readme.xlsx
+++ b/Analytics/eval/test/results/readme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\unity\MLA_BCI\Analytics\eval\test\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2221012\Documents\MLA_BCI2000\Analytics\eval\test\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD0ADE-822A-4023-BA59-D3B961EB8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19753CD-FE95-46DE-A06E-812D1D7909A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="1545" windowWidth="20400" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2115" windowWidth="24810" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>シート名</t>
     <phoneticPr fontId="18"/>
@@ -90,6 +90,29 @@
       <t>サ</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>normality</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2要因混合計画前の正規性の検定</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コンゴウケイカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイキセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>ケンテイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -826,9 +849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +889,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +995,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1122,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1195,6 +1218,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
